--- a/Plan_de_tests.xlsx
+++ b/Plan_de_tests.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grego\Documents\OpenClassrooms\Formation_DVP-WEB\P5\Projet\Orinoco\JWDP5\GregoireAimier_5_13042021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224DF0C8-BAD3-4FF3-9FA8-AB01407811C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A1B6B0-A8E5-4F8D-818D-0A7426895312}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="135">
   <si>
     <t>Fichier JS</t>
   </si>
@@ -70,12 +70,6 @@
     <t>Au changement de sélection de la couleur, le bouton "commander" doit devenir clickable</t>
   </si>
   <si>
-    <t>Vérifier l'état du bouton commander dans le html du devtool. Ca doit être "disabled" à l'arrivée de la page et sans "disabled" quand on choisit une option</t>
-  </si>
-  <si>
-    <t>Le bouton ne s'affiche pas quand on change de sélection ou est actif sur la première option (ce qui n'est pas le cas)</t>
-  </si>
-  <si>
     <t>45 à 53</t>
   </si>
   <si>
@@ -88,9 +82,6 @@
     <t>Appeller la fonction avec des strings différents (dont valeur vide) et on observe la valeur retournée, avec un console.log par exemple</t>
   </si>
   <si>
-    <t>Erreur 404 ?</t>
-  </si>
-  <si>
     <t>createProductContainer</t>
   </si>
   <si>
@@ -100,9 +91,6 @@
     <t>La fonction ne retourne rien mais créé des éléments html. Elle doit créer 5 niveaux : Section / h2 &amp; article / img &amp; div / p &amp; div / p select p / options</t>
   </si>
   <si>
-    <t>Appeler la fonction avec un fichier json bien paramétré (retour du serveur). On peut vérifier avec le devtool si les éléments sont créés</t>
-  </si>
-  <si>
     <t>Dans le cas d'une erreur 404, et si le fichier ne retourne pas un fichier json bien paramétré, les éléments pourraient se créé mais pas totalement</t>
   </si>
   <si>
@@ -115,9 +103,6 @@
     <t>La fonction se lance au chargement de la page. Nous devons voir une page correctement affichée. Nous verrons la vérification des 2 fonctions séparéments</t>
   </si>
   <si>
-    <t>Problème acces serveur ou fichier json récupéré pas au bon format?</t>
-  </si>
-  <si>
     <t>31 à 43</t>
   </si>
   <si>
@@ -170,9 +155,6 @@
   </si>
   <si>
     <t>Rajouter au localstorage un élément (via le bouton commander dans "produit.html"), Vérifier avec un console.log l'état du localstorage</t>
-  </si>
-  <si>
-    <t>Le local storage pourrait ne pas se supprimer?</t>
   </si>
   <si>
     <t>38 à 41</t>
@@ -231,13 +213,232 @@
   </si>
   <si>
     <t>order.js</t>
+  </si>
+  <si>
+    <t>Dans le cas d'une erreur 404, et si le fichier ne retourne pas un fichier json bien paramétré, les éléments pourraient se créer mais pas totalement</t>
+  </si>
+  <si>
+    <t>Problème d'accès serveur / mauvais "format du fichier "json" récupéré ?</t>
+  </si>
+  <si>
+    <t>Erreur 404</t>
+  </si>
+  <si>
+    <t>Le bouton ne s'affiche pas quand on change de sélection ou est actif sur la première option (ce qui ne doit pas être le cas)</t>
+  </si>
+  <si>
+    <t>Appeler la fonction avec un fichier json bien paramétré (retour du serveur). On peut vérifier avec la devtool si les éléments sont créés</t>
+  </si>
+  <si>
+    <t>Vérifier l'état du bouton commander dans le html de la devtool. Ca doit être "disabled" à l'arrivée de la page et sans "disabled" quand on choisit une option</t>
+  </si>
+  <si>
+    <t>Le local storage pourrait ne pas se supprimer</t>
+  </si>
+  <si>
+    <t>7 à 22</t>
+  </si>
+  <si>
+    <t>code complet</t>
+  </si>
+  <si>
+    <t>Ce bout de code permet de faire apparaitre le numéro de la commande (retournée par le "POST") et le prix total. De plus, le local storage doit se vider si les 2 éléments précédents ne sont pas "vides"</t>
+  </si>
+  <si>
+    <t>Les valeurs de prix et de commande sont passées en paramètres de l'URL. On pourrait vérifier avec un console.log des paramètres récupérés et également de l'état du local storage</t>
+  </si>
+  <si>
+    <t>Les paramètres transmis sont erronés. La page affiche un résultat "null". Le localstorage est "vidé" alors qu'au final la commande n'a pas été prise en compte</t>
+  </si>
+  <si>
+    <t>15 à 29</t>
+  </si>
+  <si>
+    <t>Cette fonction appelle plusieurs fonctions sous conditions. 
+- Si le local storage est vide : On appelle la fonction "warningEmptyBasket" et on fait "disparaitre" les boutons permettant de valider ou supprimer le panier + on laisse le formulaire "caché".
+- Si le local storage n'est pas vide : On appelle la fonction seeTheStorageInTable et on fait appaitre les boutons permettant de valider ou supprimer le panier + on laisse le formulaire caché</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On peut vérifier visuellement si les éléments sont présents. Avec un console.log sur le localstorage, nous pourrions vérifier si les éléments sont bien présents ou non </t>
+  </si>
+  <si>
+    <t>la page ne s'affiche pas malgré la présence d'éléments dans le localstorage</t>
+  </si>
+  <si>
+    <t>37 à 40</t>
+  </si>
+  <si>
+    <t>addEventListener au clic du bouton "validation de la commande"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Au clic, le formulaire doit apparaître. </t>
+  </si>
+  <si>
+    <t>Le formulaire ne s'affiche pas au clic.</t>
+  </si>
+  <si>
+    <t>44 à 56</t>
+  </si>
+  <si>
+    <t>addEventListener au remplissage du formulaire</t>
+  </si>
+  <si>
+    <t>C'est un addEventListener qui appelle la fonction "blockVisible" qui permet en ayant mis l'item "formulaire" de le rendre visible au clic du bouton "validation de la commande"</t>
+  </si>
+  <si>
+    <t>Vérifier avec un console.log l'état de la const numberOfInputComplete. Si =5 alors le boutton doit apparaitre. Sinon non.</t>
+  </si>
+  <si>
+    <t>Le boutton "Finaliser la commande" n'est pas clickable</t>
+  </si>
+  <si>
+    <t>C'est un addEventListener qui vérifie le nombre d'input "valides" en appelant la fonction "inputVerification". Si c'est le cas, alors le boutton "Finaliser la commande" devient clickable</t>
+  </si>
+  <si>
+    <t>67 à 73</t>
+  </si>
+  <si>
+    <t>seeTheStorageInTable</t>
+  </si>
+  <si>
+    <t>Cette fonction permet de faire apparaître tous les éléments du local storage dans un tableau. Elle lance tout d'abord la fonction "createHtmlTableHeader" (entête du tableau), puis "createTableBody" (corps du tableau avec les éléments du panier) et enfin "createHtmlTableTotal" qui affiche le prix total (utilisation d'un timeout)</t>
+  </si>
+  <si>
+    <t>Vérification dans la devtool que les 3 éléments ont bien été créés et que le prix total est bien affiché</t>
+  </si>
+  <si>
+    <t>Le tableau n'est pas affiché. Le prix total est à 0.</t>
+  </si>
+  <si>
+    <t>77 à 85</t>
+  </si>
+  <si>
+    <t>87 à 104</t>
+  </si>
+  <si>
+    <t>inputVerification</t>
+  </si>
+  <si>
+    <t>La fonction doit retourner un nombre entier qui correspond au nombre d'inputs correctements remplis (formulaire). Pour le champ "email", nous allons vérifier qu'il existe un @ et un "." après le @, et qu'il n'y a pas d'espace. Pour les autres champs, si ils ne sont pas vides, alors c'est que c'est "OK".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tester la modification de champs (console.log sur le "compteur") en enlevant le @ ou en mettant des espaces dans le champ "email". </t>
+  </si>
+  <si>
+    <t>Un des champ est mal rempli et le compteur est à 5. Tous les champs sont correctement remplis et le compteur n'est pas à 5.</t>
+  </si>
+  <si>
+    <t>108 à 110</t>
+  </si>
+  <si>
+    <t>warningEmptyBasket</t>
+  </si>
+  <si>
+    <t>Cette fonction affiche "votre panier est vide" dans la balise dont l'Id est "productTable"</t>
+  </si>
+  <si>
+    <t>Vérifier dans la devtool que le "votre panier est vide" est bien présent dans la balise (et visible sur la page)</t>
+  </si>
+  <si>
+    <t>Rien n'est affiché sur la page</t>
+  </si>
+  <si>
+    <t>113 à 120</t>
+  </si>
+  <si>
+    <t>blockVisible</t>
+  </si>
+  <si>
+    <t>Cette fonction affiche ou fait disparaitre des "éléments" en fonction des paramètres "transmis". Elle est prévue pour être utilisée pour 2 boutons ("vider le panier" et "Valider la commande") et sur le formulaire.</t>
+  </si>
+  <si>
+    <t>Vérifier avec un console.log le résultat (block ou none) en fonction de paramètres envoyés dans la fonction</t>
+  </si>
+  <si>
+    <t>Les bouttons et le formulaire ne s'affichent pas correctement</t>
+  </si>
+  <si>
+    <t>59  / 123 à 167</t>
+  </si>
+  <si>
+    <t>AddEventListener au clic du bouton "submit" ("Finaliser la commande") + fonction "send"</t>
+  </si>
+  <si>
+    <t>Cet addEventListener appelle la fonction send. Cette fonction va vérifier l'état des inputs du formulaire et que le localstorage ne soit pas null. Si c'est bon, alors on utilise un fetch pour le "POST" (envoi de la requête à l'API). Nous récupérons un fichier json qui contient entre autres le prix de chaque élément commandé ainsi que la référence de la commande. Ces données sont transmises en tant que paramètres de l'url de la page "order.html"</t>
+  </si>
+  <si>
+    <t>Vérifier avec un console.log / alert l'état du retour de la requete POST. Vérifier également l'état des inputs (que le POST ne soit pas fait si les inputs ne sont pas bons</t>
+  </si>
+  <si>
+    <t>Erreur 404, le fichier récupéré n'a pas le bon format, les paramètres passés dans l'url ne sont pas les bons ou sont inexistants</t>
+  </si>
+  <si>
+    <t>172 à 183</t>
+  </si>
+  <si>
+    <t>createTableBody</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avec un console.log, vérifier que le fichier json envoyé soit au bon format, que la valeur envoyée à getItemWithId soit bien une valeur attendue par la fonction. Dans la page directement, il doit y avoir une ligne par élément du localstorage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les éléments ne sont pas affichés alors que le localstorage n'est pas vide. Erreur 404. </t>
+  </si>
+  <si>
+    <t>186 à 193</t>
+  </si>
+  <si>
+    <t>createHtmlTableHeader</t>
+  </si>
+  <si>
+    <t>Cette fonction crée un tableau qui contient les éléments présents dans le local storage en appelant les fonctions "getItemWithId" puis "createHtmlItems" pour chaque item récupéré de getItemWithId</t>
+  </si>
+  <si>
+    <t>Cette fonction crée l'entête du tableau. Il contient une ligne avec les noms des colones : Id / Nom / Prix.</t>
+  </si>
+  <si>
+    <t>Visuellement sur la page, l'entête du tableau doit apparaître. Sinon vérifier dans la devtool.</t>
+  </si>
+  <si>
+    <t>L'entête du tableau ne se crée pas ou n'est pas considéré "comme un entête" mais comme le corps du tableau.</t>
+  </si>
+  <si>
+    <t>createHtmlItems</t>
+  </si>
+  <si>
+    <t>Cette fonction crée une ligne pour un item donné. L'item donné est un élément au format json</t>
+  </si>
+  <si>
+    <t>Vérifier avec un console.log que les éléments récupéré dans le fichier json sont bons (_Id / name . Price).</t>
+  </si>
+  <si>
+    <t>Les éléments ne sont pas créés. Les données ne sont pas les bonnes (cohérence Id / Prix / Nom)</t>
+  </si>
+  <si>
+    <t>196 à 218</t>
+  </si>
+  <si>
+    <t>221 à 267</t>
+  </si>
+  <si>
+    <t>createHtmlTableTotal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette fonction crée un tableau qui contient 4 lignes. 1 ligne pour le "total", une pour la "TVA", une pour les coûts de livraison et une dernière pour le total de la commande. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 lignes doivent être présentes. La valeur de la première ligne et de la dernière sont identiques (pas de frais de livraison). Vérifier la fonction en y mettant en paramètre un nombre quelconque
+</t>
+  </si>
+  <si>
+    <t>Les éléments ne sont pas créés. Les données ne sont pas les bonnes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -256,6 +457,17 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -284,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -311,6 +523,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -531,11 +749,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1001"/>
+  <dimension ref="A1:Z1013"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -593,19 +811,19 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
@@ -613,19 +831,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:26" s="5" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -633,19 +851,19 @@
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="5" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -653,19 +871,19 @@
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="66" x14ac:dyDescent="0.25">
@@ -702,10 +920,10 @@
         <v>15</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="5" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -713,19 +931,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="E8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:26" s="5" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -733,223 +951,427 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="5" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="5" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="E11" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="5" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:26" s="5" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="5" customFormat="1" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="7" t="s">
+    </row>
+    <row r="15" spans="1:26" s="5" customFormat="1" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" s="5" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="5" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="5" customFormat="1" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="5" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="5" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:26" s="5" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="4:6" s="5" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="4:6" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="4:6" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="4:6" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="4:6" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="4:6" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="4:6" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="4:6" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="4:6" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="4:6" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="4:6" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="4:6" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="4:6" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-    </row>
-    <row r="30" spans="4:6" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="5" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="5" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="5" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="5" customFormat="1" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="5" customFormat="1" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="5" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="5" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="5" customFormat="1" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="5" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="5" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="4:6" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="4:6" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="4:6" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:6" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" spans="4:6" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:6" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
@@ -1009,72 +1431,72 @@
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
     </row>
-    <row r="46" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="4:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="4:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="4:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="4:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="4:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="4:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="4:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="4:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="4:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="4:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="4:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:6" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" spans="4:6" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" spans="4:6" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="4:6" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" spans="4:6" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+    </row>
+    <row r="51" spans="4:6" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+    </row>
+    <row r="52" spans="4:6" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+    </row>
+    <row r="53" spans="4:6" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+    </row>
+    <row r="54" spans="4:6" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+    </row>
+    <row r="55" spans="4:6" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+    </row>
+    <row r="56" spans="4:6" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+    </row>
+    <row r="57" spans="4:6" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+    </row>
+    <row r="58" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="4:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -5789,7 +6211,68 @@
       <c r="E1001" s="4"/>
       <c r="F1001" s="4"/>
     </row>
+    <row r="1002" spans="4:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D1002" s="4"/>
+      <c r="E1002" s="4"/>
+      <c r="F1002" s="4"/>
+    </row>
+    <row r="1003" spans="4:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D1003" s="4"/>
+      <c r="E1003" s="4"/>
+      <c r="F1003" s="4"/>
+    </row>
+    <row r="1004" spans="4:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D1004" s="4"/>
+      <c r="E1004" s="4"/>
+      <c r="F1004" s="4"/>
+    </row>
+    <row r="1005" spans="4:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D1005" s="4"/>
+      <c r="E1005" s="4"/>
+      <c r="F1005" s="4"/>
+    </row>
+    <row r="1006" spans="4:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D1006" s="4"/>
+      <c r="E1006" s="4"/>
+      <c r="F1006" s="4"/>
+    </row>
+    <row r="1007" spans="4:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D1007" s="4"/>
+      <c r="E1007" s="4"/>
+      <c r="F1007" s="4"/>
+    </row>
+    <row r="1008" spans="4:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D1008" s="4"/>
+      <c r="E1008" s="4"/>
+      <c r="F1008" s="4"/>
+    </row>
+    <row r="1009" spans="4:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D1009" s="4"/>
+      <c r="E1009" s="4"/>
+      <c r="F1009" s="4"/>
+    </row>
+    <row r="1010" spans="4:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D1010" s="4"/>
+      <c r="E1010" s="4"/>
+      <c r="F1010" s="4"/>
+    </row>
+    <row r="1011" spans="4:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D1011" s="4"/>
+      <c r="E1011" s="4"/>
+      <c r="F1011" s="4"/>
+    </row>
+    <row r="1012" spans="4:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D1012" s="4"/>
+      <c r="E1012" s="4"/>
+      <c r="F1012" s="4"/>
+    </row>
+    <row r="1013" spans="4:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D1013" s="4"/>
+      <c r="E1013" s="4"/>
+      <c r="F1013" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>